--- a/sampletest.xlsx
+++ b/sampletest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samba\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6A8CB2-0A6A-417F-9E56-2EF086367407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF1F875-B223-45D1-9A17-3A783EF5C937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{7E5C2BA0-BA07-4090-8B2E-4289143DF04B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Test Script (Steps) - Step</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0C6D70B-A62A-4B39-B63F-5273170C4919}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -475,6 +475,16 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{DBB15120-537B-4F76-979D-31AAACE17884}"/>
